--- a/ЛР6.xlsx
+++ b/ЛР6.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Александр\Desktop\учеба\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3538CCA7-7E9A-47E1-B698-82F8DA17B300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88766CB-E304-4747-BFCB-FD651B05ABE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -163,7 +163,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -383,13 +383,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -401,9 +416,33 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -416,14 +455,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -436,16 +472,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -951,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -964,250 +1006,250 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17">
+      <c r="F1" s="21">
         <v>0.1</v>
       </c>
-      <c r="G1" s="4"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:15" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="8">
+      <c r="A2" s="7">
         <v>0</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="11">
         <v>0</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>2</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="16">
         <v>0</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>1</v>
       </c>
-      <c r="N2" s="23" t="s">
+      <c r="N2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="24" t="s">
+      <c r="O2" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="12">
         <f>B2+$F$1</f>
         <v>0.1</v>
       </c>
-      <c r="C3" s="16">
-        <f>C2+O3</f>
+      <c r="C3" s="15">
+        <f t="shared" ref="C3:C12" si="0">C2+O3</f>
         <v>2.3046409943344797</v>
       </c>
-      <c r="N3" s="21">
-        <f>$F$1*(EXP(-B2)*(B2+1)+C2/(B2+1))</f>
+      <c r="N3" s="19">
+        <f t="shared" ref="N3:N12" si="1">$F$1*(EXP(-B2)*(B2+1)+C2/(B2+1))</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="O3" s="22">
-        <f>$F$1*(EXP(-B2-$F$1/2)*(B2+$F$1/2+1)+(C2+N3/2)/(B2+$F$1/2+1))</f>
+      <c r="O3" s="20">
+        <f t="shared" ref="O3:O12" si="2">$F$1*(EXP(-B2-$F$1/2)*(B2+$F$1/2+1)+(C2+N3/2)/(B2+$F$1/2+1))</f>
         <v>0.30464099433447972</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="12">
         <f>B3+$F$1</f>
         <v>0.2</v>
       </c>
-      <c r="C4" s="16">
-        <f>C3+O4</f>
+      <c r="C4" s="15">
+        <f t="shared" si="0"/>
         <v>2.6174627125937824</v>
       </c>
-      <c r="N4" s="6">
-        <f>$F$1*(EXP(-B3)*(B3+1)+C3/(B3+1))</f>
+      <c r="N4" s="5">
+        <f t="shared" si="1"/>
         <v>0.30904493365072644</v>
       </c>
-      <c r="O4" s="7">
-        <f>$F$1*(EXP(-B3-$F$1/2)*(B3+$F$1/2+1)+(C3+N4/2)/(B3+$F$1/2+1))</f>
+      <c r="O4" s="6">
+        <f t="shared" si="2"/>
         <v>0.31282171825930283</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="13">
-        <f t="shared" ref="B5:B12" si="0">B4+$F$1</f>
+      <c r="B5" s="12">
+        <f t="shared" ref="B5:B12" si="3">B4+$F$1</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="C5" s="16">
-        <f>C4+O5</f>
+      <c r="C5" s="15">
+        <f t="shared" si="0"/>
         <v>2.9368646108086307</v>
       </c>
-      <c r="N5" s="6">
-        <f>$F$1*(EXP(-B4)*(B4+1)+C4/(B4+1))</f>
+      <c r="N5" s="5">
+        <f t="shared" si="1"/>
         <v>0.31636958308550639</v>
       </c>
-      <c r="O5" s="7">
-        <f>$F$1*(EXP(-B4-$F$1/2)*(B4+$F$1/2+1)+(C4+N5/2)/(B4+$F$1/2+1))</f>
+      <c r="O5" s="6">
+        <f t="shared" si="2"/>
         <v>0.31940189821484843</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="12">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="C6" s="15">
         <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
-      <c r="C6" s="16">
-        <f>C5+O6</f>
         <v>3.2614770678345746</v>
       </c>
-      <c r="N6" s="6">
-        <f>$F$1*(EXP(-B5)*(B5+1)+C5/(B5+1))</f>
+      <c r="N6" s="5">
+        <f t="shared" si="1"/>
         <v>0.32221903105851801</v>
       </c>
-      <c r="O6" s="7">
-        <f>$F$1*(EXP(-B5-$F$1/2)*(B5+$F$1/2+1)+(C5+N6/2)/(B5+$F$1/2+1))</f>
+      <c r="O6" s="6">
+        <f t="shared" si="2"/>
         <v>0.3246124570259441</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="12">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="15">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="C7" s="16">
-        <f>C6+O7</f>
         <v>3.5901318253306491</v>
       </c>
-      <c r="N7" s="6">
-        <f>$F$1*(EXP(-B6)*(B6+1)+C6/(B6+1))</f>
+      <c r="N7" s="5">
+        <f t="shared" si="1"/>
         <v>0.32680745414745915</v>
       </c>
-      <c r="O7" s="7">
-        <f>$F$1*(EXP(-B6-$F$1/2)*(B6+$F$1/2+1)+(C6+N7/2)/(B6+$F$1/2+1))</f>
+      <c r="O7" s="6">
+        <f t="shared" si="2"/>
         <v>0.32865475749607465</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <v>6</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="12">
+        <f t="shared" si="3"/>
+        <v>0.6</v>
+      </c>
+      <c r="C8" s="15">
         <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="C8" s="16">
-        <f>C7+O8</f>
         <v>3.9218359934011375</v>
       </c>
-      <c r="N8" s="6">
-        <f>$F$1*(EXP(-B7)*(B7+1)+C7/(B7+1))</f>
+      <c r="N8" s="5">
+        <f t="shared" si="1"/>
         <v>0.330321720645605</v>
       </c>
-      <c r="O8" s="7">
-        <f>$F$1*(EXP(-B7-$F$1/2)*(B7+$F$1/2+1)+(C7+N8/2)/(B7+$F$1/2+1))</f>
+      <c r="O8" s="6">
+        <f t="shared" si="2"/>
         <v>0.33170416807048841</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="8">
         <v>7</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="12">
+        <f t="shared" si="3"/>
+        <v>0.7</v>
+      </c>
+      <c r="C9" s="15">
         <f t="shared" si="0"/>
-        <v>0.7</v>
-      </c>
-      <c r="C9" s="16">
-        <f>C8+O9</f>
         <v>4.2557492010565507</v>
       </c>
-      <c r="N9" s="6">
-        <f>$F$1*(EXP(-B8)*(B8+1)+C8/(B8+1))</f>
+      <c r="N9" s="5">
+        <f t="shared" si="1"/>
         <v>0.33292461136261536</v>
       </c>
-      <c r="O9" s="7">
-        <f>$F$1*(EXP(-B8-$F$1/2)*(B8+$F$1/2+1)+(C8+N9/2)/(B8+$F$1/2+1))</f>
+      <c r="O9" s="6">
+        <f t="shared" si="2"/>
         <v>0.33391320765541277</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="8">
         <v>8</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="12">
+        <f t="shared" si="3"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="C10" s="15">
         <f t="shared" si="0"/>
-        <v>0.79999999999999993</v>
-      </c>
-      <c r="C10" s="16">
-        <f>C9+O10</f>
         <v>4.5911635218449449</v>
       </c>
-      <c r="N10" s="6">
-        <f>$F$1*(EXP(-B9)*(B9+1)+C9/(B9+1))</f>
+      <c r="N10" s="5">
+        <f t="shared" si="1"/>
         <v>0.33475768994198379</v>
       </c>
-      <c r="O10" s="7">
-        <f>$F$1*(EXP(-B9-$F$1/2)*(B9+$F$1/2+1)+(C9+N10/2)/(B9+$F$1/2+1))</f>
+      <c r="O10" s="6">
+        <f t="shared" si="2"/>
         <v>0.33541432078839428</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="A11" s="8">
         <v>9</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="12">
+        <f t="shared" si="3"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="C11" s="15">
         <f t="shared" si="0"/>
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="C11" s="16">
-        <f>C10+O11</f>
         <v>4.9274858490482565</v>
       </c>
-      <c r="N11" s="6">
-        <f>$F$1*(EXP(-B10)*(B10+1)+C10/(B10+1))</f>
+      <c r="N11" s="5">
+        <f t="shared" si="1"/>
         <v>0.33594385364359686</v>
       </c>
-      <c r="O11" s="7">
-        <f>$F$1*(EXP(-B10-$F$1/2)*(B10+$F$1/2+1)+(C10+N11/2)/(B10+$F$1/2+1))</f>
+      <c r="O11" s="6">
+        <f t="shared" si="2"/>
         <v>0.33632232720331134</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
+      <c r="A12" s="9">
         <v>10</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="13">
+        <f t="shared" si="3"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="C12" s="15">
         <f t="shared" si="0"/>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="C12" s="16">
-        <f>C11+O12</f>
         <v>5.2642224330814598</v>
       </c>
       <c r="N12" s="2">
-        <f>$F$1*(EXP(-B11)*(B11+1)+C11/(B11+1))</f>
+        <f t="shared" si="1"/>
         <v>0.33658959582693787</v>
       </c>
       <c r="O12" s="3">
-        <f>$F$1*(EXP(-B11-$F$1/2)*(B11+$F$1/2+1)+(C11+N12/2)/(B11+$F$1/2+1))</f>
+        <f t="shared" si="2"/>
         <v>0.33673658403320339</v>
       </c>
     </row>
@@ -1216,118 +1258,322 @@
       <c r="B20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G20" s="23" t="s">
+      <c r="G20" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="H20" s="24" t="s">
+      <c r="H20" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I20" s="23" t="s">
+      <c r="I20" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J20" s="24" t="s">
+      <c r="J20" s="26" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+      <c r="A21" s="7">
         <v>0</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="11">
         <v>0</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="14">
         <v>2</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="19">
         <f>$F$1*(EXP(-B21)*(B21+1)+C21/(B21+1))</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="25">
         <f>$F$1*(EXP(-B21-$F$1/2)*(B21+$F$1/2+1)+(C21+$F$1/2*G21)/(B21+$F$1/2+1))</f>
         <v>0.29178385147733693</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="25">
         <f>$F$1*(EXP(-B21-$F$1/2)*(B21+$F$1/2+1)+(C21+$F$1/2*H21)/(B21+$F$1/2+1))</f>
         <v>0.29174472696056231</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="20">
         <f>$F$1*(EXP(-B21-$F$1)*(B21+$F$1+1)+(C21+I21)/(B21+$F$1+1))</f>
         <v>0.30787254570764305</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+      <c r="A22" s="8">
         <v>1</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="16"/>
+      <c r="B22" s="12">
+        <f>B21+$F$1</f>
+        <v>0.1</v>
+      </c>
+      <c r="C22" s="15">
+        <f>C21+1/6*(G21+2*H21+2*I21+J21)</f>
+        <v>2.2958216170972401</v>
+      </c>
+      <c r="G22" s="5">
+        <f>$F$1*(EXP(-B22)*(B22+1)+C22/(B22+1))</f>
+        <v>0.30824317208370466</v>
+      </c>
+      <c r="H22" s="23">
+        <f>$F$1*(EXP(-B22-$F$1/2)*(B22+$F$1/2+1)+(C22+$F$1/2*G22)/(B22+$F$1/2+1))</f>
+        <v>0.29995826734987524</v>
+      </c>
+      <c r="I22" s="23">
+        <f>$F$1*(EXP(-B22-$F$1/2)*(B22+$F$1/2+1)+(C22+$F$1/2*H22)/(B22+$F$1/2+1))</f>
+        <v>0.29992224602494555</v>
+      </c>
+      <c r="J22" s="6">
+        <f>$F$1*(EXP(-B22-$F$1)*(B22+$F$1+1)+(C22+I22)/(B22+$F$1+1))</f>
+        <v>0.31455967896287335</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
+      <c r="A23" s="8">
         <v>2</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="16"/>
+      <c r="B23" s="12">
+        <f t="shared" ref="B23:B31" si="4">B22+$F$1</f>
+        <v>0.2</v>
+      </c>
+      <c r="C23" s="15">
+        <f>C22+1/6*(G22+2*H22+2*I22+J22)</f>
+        <v>2.5995822633966101</v>
+      </c>
+      <c r="G23" s="5">
+        <f>$F$1*(EXP(-B23)*(B23+1)+C23/(B23+1))</f>
+        <v>0.31487954565240872</v>
+      </c>
+      <c r="H23" s="23">
+        <f>$F$1*(EXP(-B23-$F$1/2)*(B23+$F$1/2+1)+(C23+$F$1/2*G23)/(B23+$F$1/2+1))</f>
+        <v>0.30657619713826406</v>
+      </c>
+      <c r="I23" s="23">
+        <f>$F$1*(EXP(-B23-$F$1/2)*(B23+$F$1/2+1)+(C23+$F$1/2*H23)/(B23+$F$1/2+1))</f>
+        <v>0.30654298374420752</v>
+      </c>
+      <c r="J23" s="6">
+        <f>$F$1*(EXP(-B23-$F$1)*(B23+$F$1+1)+(C23+I23)/(B23+$F$1+1))</f>
+        <v>0.31985446462253236</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+      <c r="A24" s="8">
         <v>3</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="16"/>
+      <c r="B24" s="12">
+        <f t="shared" si="4"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="C24" s="15">
+        <f>C23+1/6*(G23+2*H23+2*I23+J23)</f>
+        <v>2.9097443254032576</v>
+      </c>
+      <c r="G24" s="5">
+        <f>$F$1*(EXP(-B24)*(B24+1)+C24/(B24+1))</f>
+        <v>0.3201328552581047</v>
+      </c>
+      <c r="H24" s="23">
+        <f>$F$1*(EXP(-B24-$F$1/2)*(B24+$F$1/2+1)+(C24+$F$1/2*G24)/(B24+$F$1/2+1))</f>
+        <v>0.31185518605026058</v>
+      </c>
+      <c r="I24" s="23">
+        <f>$F$1*(EXP(-B24-$F$1/2)*(B24+$F$1/2+1)+(C24+$F$1/2*H24)/(B24+$F$1/2+1))</f>
+        <v>0.31182452801615751</v>
+      </c>
+      <c r="J24" s="6">
+        <f>$F$1*(EXP(-B24-$F$1)*(B24+$F$1+1)+(C24+I24)/(B24+$F$1+1))</f>
+        <v>0.32395686740351914</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
+      <c r="A25" s="8">
         <v>4</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="16"/>
+      <c r="B25" s="12">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="C25" s="15">
+        <f>C24+1/6*(G24+2*H24+2*I24+J24)</f>
+        <v>3.2249858505356674</v>
+      </c>
+      <c r="G25" s="5">
+        <f>$F$1*(EXP(-B25)*(B25+1)+C25/(B25+1))</f>
+        <v>0.32420093862610866</v>
+      </c>
+      <c r="H25" s="23">
+        <f>$F$1*(EXP(-B25-$F$1/2)*(B25+$F$1/2+1)+(C25+$F$1/2*G25)/(B25+$F$1/2+1))</f>
+        <v>0.31598683353460361</v>
+      </c>
+      <c r="I25" s="23">
+        <f>$F$1*(EXP(-B25-$F$1/2)*(B25+$F$1/2+1)+(C25+$F$1/2*H25)/(B25+$F$1/2+1))</f>
+        <v>0.31595850903428807</v>
+      </c>
+      <c r="J25" s="6">
+        <f>$F$1*(EXP(-B25-$F$1)*(B25+$F$1+1)+(C25+I25)/(B25+$F$1+1))</f>
+        <v>0.32704255626155876</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
+      <c r="A26" s="8">
         <v>5</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="16"/>
+      <c r="B26" s="12">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="C26" s="15">
+        <f>C25+1/6*(G25+2*H25+2*I25+J25)</f>
+        <v>3.5441748805399094</v>
+      </c>
+      <c r="G26" s="5">
+        <f>$F$1*(EXP(-B26)*(B26+1)+C26/(B26+1))</f>
+        <v>0.32725792432622236</v>
+      </c>
+      <c r="H26" s="23">
+        <f>$F$1*(EXP(-B26-$F$1/2)*(B26+$F$1/2+1)+(C26+$F$1/2*G26)/(B26+$F$1/2+1))</f>
+        <v>0.31913933523840898</v>
+      </c>
+      <c r="I26" s="23">
+        <f>$F$1*(EXP(-B26-$F$1/2)*(B26+$F$1/2+1)+(C26+$F$1/2*H26)/(B26+$F$1/2+1))</f>
+        <v>0.31911314624135151</v>
+      </c>
+      <c r="J26" s="6">
+        <f>$F$1*(EXP(-B26-$F$1)*(B26+$F$1+1)+(C26+I26)/(B26+$F$1+1))</f>
+        <v>0.32926536344887308</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
+      <c r="A27" s="8">
         <v>6</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="16"/>
+      <c r="B27" s="12">
+        <f t="shared" si="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="C27" s="15">
+        <f>C26+1/6*(G26+2*H26+2*I26+J26)</f>
+        <v>3.8663462556623456</v>
+      </c>
+      <c r="G27" s="5">
+        <f>$F$1*(EXP(-B27)*(B27+1)+C27/(B27+1))</f>
+        <v>0.32945650275394084</v>
+      </c>
+      <c r="H27" s="23">
+        <f>$F$1*(EXP(-B27-$F$1/2)*(B27+$F$1/2+1)+(C27+$F$1/2*G27)/(B27+$F$1/2+1))</f>
+        <v>0.32145992169890358</v>
+      </c>
+      <c r="I27" s="23">
+        <f>$F$1*(EXP(-B27-$F$1/2)*(B27+$F$1/2+1)+(C27+$F$1/2*H27)/(B27+$F$1/2+1))</f>
+        <v>0.3214356896351005</v>
+      </c>
+      <c r="J27" s="6">
+        <f>$F$1*(EXP(-B27-$F$1)*(B27+$F$1+1)+(C27+I27)/(B27+$F$1+1))</f>
+        <v>0.33075961607380117</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
+      <c r="A28" s="8">
         <v>7</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="16"/>
+      <c r="B28" s="12">
+        <f t="shared" si="4"/>
+        <v>0.7</v>
+      </c>
+      <c r="C28" s="15">
+        <f>C27+1/6*(G27+2*H27+2*I27+J27)</f>
+        <v>4.1906808125783037</v>
+      </c>
+      <c r="G28" s="5">
+        <f>$F$1*(EXP(-B28)*(B28+1)+C28/(B28+1))</f>
+        <v>0.3309301376785575</v>
+      </c>
+      <c r="H28" s="23">
+        <f>$F$1*(EXP(-B28-$F$1/2)*(B28+$F$1/2+1)+(C28+$F$1/2*G28)/(B28+$F$1/2+1))</f>
+        <v>0.32307713641323366</v>
+      </c>
+      <c r="I28" s="23">
+        <f>$F$1*(EXP(-B28-$F$1/2)*(B28+$F$1/2+1)+(C28+$F$1/2*H28)/(B28+$F$1/2+1))</f>
+        <v>0.32305469926676134</v>
+      </c>
+      <c r="J28" s="6">
+        <f>$F$1*(EXP(-B28-$F$1)*(B28+$F$1+1)+(C28+I28)/(B28+$F$1+1))</f>
+        <v>0.33164229753249241</v>
+      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
+      <c r="A29" s="8">
         <v>8</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="16"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
+      <c r="B29" s="12">
+        <f t="shared" si="4"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="C29" s="15">
+        <f>C28+1/6*(G28+2*H28+2*I28+J28)</f>
+        <v>4.5164868303401438</v>
+      </c>
+      <c r="G29" s="5">
+        <f>$F$1*(EXP(-B29)*(B29+1)+C29/(B29+1))</f>
+        <v>0.33179514855999681</v>
+      </c>
+      <c r="H29" s="23">
+        <f>$F$1*(EXP(-B29-$F$1/2)*(B29+$F$1/2+1)+(C29+$F$1/2*G29)/(B29+$F$1/2+1))</f>
+        <v>0.3241029293169006</v>
+      </c>
+      <c r="I29" s="23">
+        <f>$F$1*(EXP(-B29-$F$1/2)*(B29+$F$1/2+1)+(C29+$F$1/2*H29)/(B29+$F$1/2+1))</f>
+        <v>0.32408213953516252</v>
+      </c>
+      <c r="J29" s="6">
+        <f>$F$1*(EXP(-B29-$F$1)*(B29+$F$1+1)+(C29+I29)/(B29+$F$1+1))</f>
+        <v>0.33201502323888787</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
         <v>9</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="16"/>
+      <c r="B30" s="12">
+        <f t="shared" si="4"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="C30" s="15">
+        <f>C29+1/6*(G29+2*H29+2*I29+J29)</f>
+        <v>4.8431835485906456</v>
+      </c>
+      <c r="G30" s="2">
+        <f>$F$1*(EXP(-B30)*(B30+1)+C30/(B30+1))</f>
+        <v>0.33215263264495837</v>
+      </c>
+      <c r="H30" s="24">
+        <f>$F$1*(EXP(-B30-$F$1/2)*(B30+$F$1/2+1)+(C30+$F$1/2*G30)/(B30+$F$1/2+1))</f>
+        <v>0.32463456009787878</v>
+      </c>
+      <c r="I30" s="24">
+        <f>$F$1*(EXP(-B30-$F$1/2)*(B30+$F$1/2+1)+(C30+$F$1/2*H30)/(B30+$F$1/2+1))</f>
+        <v>0.32461528298878362</v>
+      </c>
+      <c r="J30" s="3">
+        <f>$F$1*(EXP(-B30-$F$1)*(B30+$F$1+1)+(C30+I30)/(B30+$F$1+1))</f>
+        <v>0.33196582981325995</v>
+      </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="10">
+      <c r="A31" s="9">
         <v>10</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="16"/>
+      <c r="B31" s="12">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="C31" s="15">
+        <f>C30+1/6*(G30+2*H30+2*I30+J30)</f>
+        <v>5.1702865733625698</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/ЛР6.xlsx
+++ b/ЛР6.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Александр\Desktop\учеба\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bfabbe61222fad61/Рабочий стол/учеба/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88766CB-E304-4747-BFCB-FD651B05ABE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{F88766CB-E304-4747-BFCB-FD651B05ABE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63B25E3B-51DB-458C-8571-1051486FE9D3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -477,17 +479,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -503,6 +505,1038 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>2 порядок</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3046409943344797</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6174627125937824</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9368646108086307</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2614770678345746</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5901318253306491</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9218359934011375</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2557492010565507</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5911635218449449</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.9274858490482565</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.2642224330814598</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5241-4F6A-B354-4E703C234D6A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>4 порядок</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$B$21:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$C$21:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2958216170972401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5995822633966101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9097443254032576</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2249858505356674</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5441748805399094</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8663462556623456</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.1906808125783037</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5164868303401438</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.8431835485906456</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.1702865733625698</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5241-4F6A-B354-4E703C234D6A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="630892208"/>
+        <c:axId val="208879568"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="630892208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="208879568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="208879568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="630892208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -578,6 +1612,337 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>18316</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>5862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>175846</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8C5E87E-DB53-4ED7-8AE4-6CA207E27D1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180242</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3527181" cy="478914"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5A183C7-40BB-4514-A11F-29D8665F4074}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2414953" y="1381857"/>
+              <a:ext cx="3527181" cy="478914"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1800" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑦</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>′</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>=</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑒</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>∗</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>+1</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑦</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>+1</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5A183C7-40BB-4514-A11F-29D8665F4074}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2414953" y="1381857"/>
+              <a:ext cx="3527181" cy="478914"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1800" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1800" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑦^′=𝑒</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1800" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〗^(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1800" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>−𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1800" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1800" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∗(𝑥+1)+𝑦/(𝑥+1)</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -993,8 +2358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1012,10 +2377,10 @@
       <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21">
+      <c r="F1" s="26">
         <v>0.1</v>
       </c>
-      <c r="G1" s="22"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7">
@@ -1261,7 +2626,7 @@
       <c r="C20" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G20" s="27" t="s">
+      <c r="G20" s="25" t="s">
         <v>2</v>
       </c>
       <c r="H20" s="10" t="s">
@@ -1270,7 +2635,7 @@
       <c r="I20" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J20" s="26" t="s">
+      <c r="J20" s="24" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1285,19 +2650,19 @@
         <v>2</v>
       </c>
       <c r="G21" s="19">
-        <f>$F$1*(EXP(-B21)*(B21+1)+C21/(B21+1))</f>
+        <f t="shared" ref="G21:G30" si="4">$F$1*(EXP(-B21)*(B21+1)+C21/(B21+1))</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="H21" s="25">
-        <f>$F$1*(EXP(-B21-$F$1/2)*(B21+$F$1/2+1)+(C21+$F$1/2*G21)/(B21+$F$1/2+1))</f>
+      <c r="H21" s="23">
+        <f t="shared" ref="H21:H30" si="5">$F$1*(EXP(-B21-$F$1/2)*(B21+$F$1/2+1)+(C21+$F$1/2*G21)/(B21+$F$1/2+1))</f>
         <v>0.29178385147733693</v>
       </c>
-      <c r="I21" s="25">
-        <f>$F$1*(EXP(-B21-$F$1/2)*(B21+$F$1/2+1)+(C21+$F$1/2*H21)/(B21+$F$1/2+1))</f>
+      <c r="I21" s="23">
+        <f t="shared" ref="I21:I30" si="6">$F$1*(EXP(-B21-$F$1/2)*(B21+$F$1/2+1)+(C21+$F$1/2*H21)/(B21+$F$1/2+1))</f>
         <v>0.29174472696056231</v>
       </c>
       <c r="J21" s="20">
-        <f>$F$1*(EXP(-B21-$F$1)*(B21+$F$1+1)+(C21+I21)/(B21+$F$1+1))</f>
+        <f t="shared" ref="J21:J30" si="7">$F$1*(EXP(-B21-$F$1)*(B21+$F$1+1)+(C21+I21)/(B21+$F$1+1))</f>
         <v>0.30787254570764305</v>
       </c>
     </row>
@@ -1310,23 +2675,23 @@
         <v>0.1</v>
       </c>
       <c r="C22" s="15">
-        <f>C21+1/6*(G21+2*H21+2*I21+J21)</f>
+        <f t="shared" ref="C22:C31" si="8">C21+1/6*(G21+2*H21+2*I21+J21)</f>
         <v>2.2958216170972401</v>
       </c>
       <c r="G22" s="5">
-        <f>$F$1*(EXP(-B22)*(B22+1)+C22/(B22+1))</f>
+        <f t="shared" si="4"/>
         <v>0.30824317208370466</v>
       </c>
-      <c r="H22" s="23">
-        <f>$F$1*(EXP(-B22-$F$1/2)*(B22+$F$1/2+1)+(C22+$F$1/2*G22)/(B22+$F$1/2+1))</f>
+      <c r="H22" s="21">
+        <f t="shared" si="5"/>
         <v>0.29995826734987524</v>
       </c>
-      <c r="I22" s="23">
-        <f>$F$1*(EXP(-B22-$F$1/2)*(B22+$F$1/2+1)+(C22+$F$1/2*H22)/(B22+$F$1/2+1))</f>
+      <c r="I22" s="21">
+        <f t="shared" si="6"/>
         <v>0.29992224602494555</v>
       </c>
       <c r="J22" s="6">
-        <f>$F$1*(EXP(-B22-$F$1)*(B22+$F$1+1)+(C22+I22)/(B22+$F$1+1))</f>
+        <f t="shared" si="7"/>
         <v>0.31455967896287335</v>
       </c>
     </row>
@@ -1335,27 +2700,27 @@
         <v>2</v>
       </c>
       <c r="B23" s="12">
-        <f t="shared" ref="B23:B31" si="4">B22+$F$1</f>
+        <f t="shared" ref="B23:B31" si="9">B22+$F$1</f>
         <v>0.2</v>
       </c>
       <c r="C23" s="15">
-        <f>C22+1/6*(G22+2*H22+2*I22+J22)</f>
+        <f t="shared" si="8"/>
         <v>2.5995822633966101</v>
       </c>
       <c r="G23" s="5">
-        <f>$F$1*(EXP(-B23)*(B23+1)+C23/(B23+1))</f>
+        <f t="shared" si="4"/>
         <v>0.31487954565240872</v>
       </c>
-      <c r="H23" s="23">
-        <f>$F$1*(EXP(-B23-$F$1/2)*(B23+$F$1/2+1)+(C23+$F$1/2*G23)/(B23+$F$1/2+1))</f>
+      <c r="H23" s="21">
+        <f t="shared" si="5"/>
         <v>0.30657619713826406</v>
       </c>
-      <c r="I23" s="23">
-        <f>$F$1*(EXP(-B23-$F$1/2)*(B23+$F$1/2+1)+(C23+$F$1/2*H23)/(B23+$F$1/2+1))</f>
+      <c r="I23" s="21">
+        <f t="shared" si="6"/>
         <v>0.30654298374420752</v>
       </c>
       <c r="J23" s="6">
-        <f>$F$1*(EXP(-B23-$F$1)*(B23+$F$1+1)+(C23+I23)/(B23+$F$1+1))</f>
+        <f t="shared" si="7"/>
         <v>0.31985446462253236</v>
       </c>
     </row>
@@ -1364,27 +2729,27 @@
         <v>3</v>
       </c>
       <c r="B24" s="12">
+        <f t="shared" si="9"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="C24" s="15">
+        <f t="shared" si="8"/>
+        <v>2.9097443254032576</v>
+      </c>
+      <c r="G24" s="5">
         <f t="shared" si="4"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="C24" s="15">
-        <f>C23+1/6*(G23+2*H23+2*I23+J23)</f>
-        <v>2.9097443254032576</v>
-      </c>
-      <c r="G24" s="5">
-        <f>$F$1*(EXP(-B24)*(B24+1)+C24/(B24+1))</f>
         <v>0.3201328552581047</v>
       </c>
-      <c r="H24" s="23">
-        <f>$F$1*(EXP(-B24-$F$1/2)*(B24+$F$1/2+1)+(C24+$F$1/2*G24)/(B24+$F$1/2+1))</f>
+      <c r="H24" s="21">
+        <f t="shared" si="5"/>
         <v>0.31185518605026058</v>
       </c>
-      <c r="I24" s="23">
-        <f>$F$1*(EXP(-B24-$F$1/2)*(B24+$F$1/2+1)+(C24+$F$1/2*H24)/(B24+$F$1/2+1))</f>
+      <c r="I24" s="21">
+        <f t="shared" si="6"/>
         <v>0.31182452801615751</v>
       </c>
       <c r="J24" s="6">
-        <f>$F$1*(EXP(-B24-$F$1)*(B24+$F$1+1)+(C24+I24)/(B24+$F$1+1))</f>
+        <f t="shared" si="7"/>
         <v>0.32395686740351914</v>
       </c>
     </row>
@@ -1393,27 +2758,27 @@
         <v>4</v>
       </c>
       <c r="B25" s="12">
+        <f t="shared" si="9"/>
+        <v>0.4</v>
+      </c>
+      <c r="C25" s="15">
+        <f t="shared" si="8"/>
+        <v>3.2249858505356674</v>
+      </c>
+      <c r="G25" s="5">
         <f t="shared" si="4"/>
-        <v>0.4</v>
-      </c>
-      <c r="C25" s="15">
-        <f>C24+1/6*(G24+2*H24+2*I24+J24)</f>
-        <v>3.2249858505356674</v>
-      </c>
-      <c r="G25" s="5">
-        <f>$F$1*(EXP(-B25)*(B25+1)+C25/(B25+1))</f>
         <v>0.32420093862610866</v>
       </c>
-      <c r="H25" s="23">
-        <f>$F$1*(EXP(-B25-$F$1/2)*(B25+$F$1/2+1)+(C25+$F$1/2*G25)/(B25+$F$1/2+1))</f>
+      <c r="H25" s="21">
+        <f t="shared" si="5"/>
         <v>0.31598683353460361</v>
       </c>
-      <c r="I25" s="23">
-        <f>$F$1*(EXP(-B25-$F$1/2)*(B25+$F$1/2+1)+(C25+$F$1/2*H25)/(B25+$F$1/2+1))</f>
+      <c r="I25" s="21">
+        <f t="shared" si="6"/>
         <v>0.31595850903428807</v>
       </c>
       <c r="J25" s="6">
-        <f>$F$1*(EXP(-B25-$F$1)*(B25+$F$1+1)+(C25+I25)/(B25+$F$1+1))</f>
+        <f t="shared" si="7"/>
         <v>0.32704255626155876</v>
       </c>
     </row>
@@ -1422,27 +2787,27 @@
         <v>5</v>
       </c>
       <c r="B26" s="12">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="C26" s="15">
+        <f t="shared" si="8"/>
+        <v>3.5441748805399094</v>
+      </c>
+      <c r="G26" s="5">
         <f t="shared" si="4"/>
-        <v>0.5</v>
-      </c>
-      <c r="C26" s="15">
-        <f>C25+1/6*(G25+2*H25+2*I25+J25)</f>
-        <v>3.5441748805399094</v>
-      </c>
-      <c r="G26" s="5">
-        <f>$F$1*(EXP(-B26)*(B26+1)+C26/(B26+1))</f>
         <v>0.32725792432622236</v>
       </c>
-      <c r="H26" s="23">
-        <f>$F$1*(EXP(-B26-$F$1/2)*(B26+$F$1/2+1)+(C26+$F$1/2*G26)/(B26+$F$1/2+1))</f>
+      <c r="H26" s="21">
+        <f t="shared" si="5"/>
         <v>0.31913933523840898</v>
       </c>
-      <c r="I26" s="23">
-        <f>$F$1*(EXP(-B26-$F$1/2)*(B26+$F$1/2+1)+(C26+$F$1/2*H26)/(B26+$F$1/2+1))</f>
+      <c r="I26" s="21">
+        <f t="shared" si="6"/>
         <v>0.31911314624135151</v>
       </c>
       <c r="J26" s="6">
-        <f>$F$1*(EXP(-B26-$F$1)*(B26+$F$1+1)+(C26+I26)/(B26+$F$1+1))</f>
+        <f t="shared" si="7"/>
         <v>0.32926536344887308</v>
       </c>
     </row>
@@ -1451,27 +2816,27 @@
         <v>6</v>
       </c>
       <c r="B27" s="12">
+        <f t="shared" si="9"/>
+        <v>0.6</v>
+      </c>
+      <c r="C27" s="15">
+        <f t="shared" si="8"/>
+        <v>3.8663462556623456</v>
+      </c>
+      <c r="G27" s="5">
         <f t="shared" si="4"/>
-        <v>0.6</v>
-      </c>
-      <c r="C27" s="15">
-        <f>C26+1/6*(G26+2*H26+2*I26+J26)</f>
-        <v>3.8663462556623456</v>
-      </c>
-      <c r="G27" s="5">
-        <f>$F$1*(EXP(-B27)*(B27+1)+C27/(B27+1))</f>
         <v>0.32945650275394084</v>
       </c>
-      <c r="H27" s="23">
-        <f>$F$1*(EXP(-B27-$F$1/2)*(B27+$F$1/2+1)+(C27+$F$1/2*G27)/(B27+$F$1/2+1))</f>
+      <c r="H27" s="21">
+        <f t="shared" si="5"/>
         <v>0.32145992169890358</v>
       </c>
-      <c r="I27" s="23">
-        <f>$F$1*(EXP(-B27-$F$1/2)*(B27+$F$1/2+1)+(C27+$F$1/2*H27)/(B27+$F$1/2+1))</f>
+      <c r="I27" s="21">
+        <f t="shared" si="6"/>
         <v>0.3214356896351005</v>
       </c>
       <c r="J27" s="6">
-        <f>$F$1*(EXP(-B27-$F$1)*(B27+$F$1+1)+(C27+I27)/(B27+$F$1+1))</f>
+        <f t="shared" si="7"/>
         <v>0.33075961607380117</v>
       </c>
     </row>
@@ -1480,27 +2845,27 @@
         <v>7</v>
       </c>
       <c r="B28" s="12">
+        <f t="shared" si="9"/>
+        <v>0.7</v>
+      </c>
+      <c r="C28" s="15">
+        <f t="shared" si="8"/>
+        <v>4.1906808125783037</v>
+      </c>
+      <c r="G28" s="5">
         <f t="shared" si="4"/>
-        <v>0.7</v>
-      </c>
-      <c r="C28" s="15">
-        <f>C27+1/6*(G27+2*H27+2*I27+J27)</f>
-        <v>4.1906808125783037</v>
-      </c>
-      <c r="G28" s="5">
-        <f>$F$1*(EXP(-B28)*(B28+1)+C28/(B28+1))</f>
         <v>0.3309301376785575</v>
       </c>
-      <c r="H28" s="23">
-        <f>$F$1*(EXP(-B28-$F$1/2)*(B28+$F$1/2+1)+(C28+$F$1/2*G28)/(B28+$F$1/2+1))</f>
+      <c r="H28" s="21">
+        <f t="shared" si="5"/>
         <v>0.32307713641323366</v>
       </c>
-      <c r="I28" s="23">
-        <f>$F$1*(EXP(-B28-$F$1/2)*(B28+$F$1/2+1)+(C28+$F$1/2*H28)/(B28+$F$1/2+1))</f>
+      <c r="I28" s="21">
+        <f t="shared" si="6"/>
         <v>0.32305469926676134</v>
       </c>
       <c r="J28" s="6">
-        <f>$F$1*(EXP(-B28-$F$1)*(B28+$F$1+1)+(C28+I28)/(B28+$F$1+1))</f>
+        <f t="shared" si="7"/>
         <v>0.33164229753249241</v>
       </c>
     </row>
@@ -1509,27 +2874,27 @@
         <v>8</v>
       </c>
       <c r="B29" s="12">
+        <f t="shared" si="9"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="C29" s="15">
+        <f t="shared" si="8"/>
+        <v>4.5164868303401438</v>
+      </c>
+      <c r="G29" s="5">
         <f t="shared" si="4"/>
-        <v>0.79999999999999993</v>
-      </c>
-      <c r="C29" s="15">
-        <f>C28+1/6*(G28+2*H28+2*I28+J28)</f>
-        <v>4.5164868303401438</v>
-      </c>
-      <c r="G29" s="5">
-        <f>$F$1*(EXP(-B29)*(B29+1)+C29/(B29+1))</f>
         <v>0.33179514855999681</v>
       </c>
-      <c r="H29" s="23">
-        <f>$F$1*(EXP(-B29-$F$1/2)*(B29+$F$1/2+1)+(C29+$F$1/2*G29)/(B29+$F$1/2+1))</f>
+      <c r="H29" s="21">
+        <f t="shared" si="5"/>
         <v>0.3241029293169006</v>
       </c>
-      <c r="I29" s="23">
-        <f>$F$1*(EXP(-B29-$F$1/2)*(B29+$F$1/2+1)+(C29+$F$1/2*H29)/(B29+$F$1/2+1))</f>
+      <c r="I29" s="21">
+        <f t="shared" si="6"/>
         <v>0.32408213953516252</v>
       </c>
       <c r="J29" s="6">
-        <f>$F$1*(EXP(-B29-$F$1)*(B29+$F$1+1)+(C29+I29)/(B29+$F$1+1))</f>
+        <f t="shared" si="7"/>
         <v>0.33201502323888787</v>
       </c>
     </row>
@@ -1538,27 +2903,27 @@
         <v>9</v>
       </c>
       <c r="B30" s="12">
+        <f t="shared" si="9"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="C30" s="15">
+        <f t="shared" si="8"/>
+        <v>4.8431835485906456</v>
+      </c>
+      <c r="G30" s="2">
         <f t="shared" si="4"/>
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="C30" s="15">
-        <f>C29+1/6*(G29+2*H29+2*I29+J29)</f>
-        <v>4.8431835485906456</v>
-      </c>
-      <c r="G30" s="2">
-        <f>$F$1*(EXP(-B30)*(B30+1)+C30/(B30+1))</f>
         <v>0.33215263264495837</v>
       </c>
-      <c r="H30" s="24">
-        <f>$F$1*(EXP(-B30-$F$1/2)*(B30+$F$1/2+1)+(C30+$F$1/2*G30)/(B30+$F$1/2+1))</f>
+      <c r="H30" s="22">
+        <f t="shared" si="5"/>
         <v>0.32463456009787878</v>
       </c>
-      <c r="I30" s="24">
-        <f>$F$1*(EXP(-B30-$F$1/2)*(B30+$F$1/2+1)+(C30+$F$1/2*H30)/(B30+$F$1/2+1))</f>
+      <c r="I30" s="22">
+        <f t="shared" si="6"/>
         <v>0.32461528298878362</v>
       </c>
       <c r="J30" s="3">
-        <f>$F$1*(EXP(-B30-$F$1)*(B30+$F$1+1)+(C30+I30)/(B30+$F$1+1))</f>
+        <f t="shared" si="7"/>
         <v>0.33196582981325995</v>
       </c>
     </row>
@@ -1567,11 +2932,11 @@
         <v>10</v>
       </c>
       <c r="B31" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="C31" s="15">
-        <f>C30+1/6*(G30+2*H30+2*I30+J30)</f>
+        <f t="shared" si="8"/>
         <v>5.1702865733625698</v>
       </c>
     </row>
@@ -1589,8 +2954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40093B97-726B-46B3-8E3C-336E6CFCBEB2}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AA19" sqref="AA19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
